--- a/data/excel/Administration_RevenueManagement_AutoCharges.xlsx
+++ b/data/excel/Administration_RevenueManagement_AutoCharges.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66CD316-7E99-42CF-A253-A180127C9ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EBEFCD-8DE7-45BE-9717-C9442E3E0D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="111">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -100,9 +100,6 @@
     <t>ACTitle</t>
   </si>
   <si>
-    <t>Password@123</t>
-  </si>
-  <si>
     <t>Flight</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>Verify Auto Charges Rule in Revenue Management</t>
   </si>
   <si>
-    <t>Verify Auto Charges Rule with product as Hotel</t>
-  </si>
-  <si>
     <t>Hotel</t>
   </si>
   <si>
@@ -355,22 +349,25 @@
     <t>Verify Auto Charges Rule with product as flight Domestic  and without selecting any Airline</t>
   </si>
   <si>
-    <t>//login.konnect.travel/backoffice</t>
-  </si>
-  <si>
-    <t>KN2503</t>
-  </si>
-  <si>
-    <t>Ankur</t>
-  </si>
-  <si>
-    <t>Ankur@12345</t>
-  </si>
-  <si>
     <t>Gulf Air,Emirates,Oman Air</t>
   </si>
   <si>
     <t>Point of Sale – Corporate (BOCA),Corporate SBT,Point of Sale – Subagent (BOSA),Agent Dashboard (B2B)</t>
+  </si>
+  <si>
+    <t>9@6C6535C</t>
+  </si>
+  <si>
+    <t>Ankur@123456</t>
+  </si>
+  <si>
+    <t>ankur_ql</t>
+  </si>
+  <si>
+    <t>Oman AirEmirates,Gulf Air</t>
+  </si>
+  <si>
+    <t>AC01</t>
   </si>
 </sst>
 </file>
@@ -915,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:U5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,42 +972,42 @@
         <v>17</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1022,60 +1019,60 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="6">
         <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="10">
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S2" s="3">
         <v>2</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -1087,28 +1084,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="6">
         <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>18</v>
@@ -1117,30 +1114,30 @@
         <v>18</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="10">
         <v>2</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1152,60 +1149,60 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="10">
         <v>3</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S4" s="3">
         <v>3</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -1217,16 +1214,16 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="6">
         <v>4</v>
@@ -1235,42 +1232,42 @@
         <v>18</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="10">
         <v>2</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S5" s="3">
         <v>3</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -1282,60 +1279,60 @@
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="N6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="10">
         <v>2</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S6" s="3">
         <v>1</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -1347,16 +1344,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="J7" s="6">
         <v>12</v>
@@ -1365,19 +1362,19 @@
         <v>18</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="10">
         <v>1</v>
@@ -1387,18 +1384,18 @@
         <v>1</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1410,16 +1407,16 @@
         <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
@@ -1428,42 +1425,42 @@
         <v>18</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="10">
         <v>1</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -1475,16 +1472,16 @@
         <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9" s="6">
         <v>13</v>
@@ -1493,42 +1490,42 @@
         <v>18</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="10">
         <v>1</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S9" s="3">
         <v>2</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -1540,28 +1537,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J10" s="6">
         <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>18</v>
@@ -1570,30 +1567,30 @@
         <v>18</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="10">
         <v>1</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S10" s="3">
         <v>2</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -1605,16 +1602,16 @@
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="6">
         <v>8</v>
@@ -1623,42 +1620,42 @@
         <v>18</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="10">
         <v>2</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S11" s="3">
         <v>2</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1670,58 +1667,58 @@
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="10">
         <v>2</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S12" s="3">
         <v>1</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1733,16 +1730,16 @@
         <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J13" s="6">
         <v>12</v>
@@ -1751,42 +1748,42 @@
         <v>18</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="10">
         <v>1</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S13" s="3">
         <v>1</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1798,16 +1795,16 @@
         <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="6">
         <v>13</v>
@@ -1816,42 +1813,42 @@
         <v>18</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="10">
         <v>1</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S14" s="3">
         <v>2</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1863,16 +1860,16 @@
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
@@ -1881,34 +1878,34 @@
         <v>18</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="10">
         <v>1</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S15" s="3">
         <v>1</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1938,9 +1935,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P15" xr:uid="{13777D29-45DD-41ED-941F-B332E80B9F94}">
       <formula1>"Int,Dom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15" xr:uid="{25D2FCFB-16A8-470A-A5BF-7929B06B61C9}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15" xr:uid="{14B5BE4D-4B54-481D-BA9F-D0680704A773}">
       <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
     </dataValidation>
@@ -1952,6 +1946,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L15" xr:uid="{DECF9D96-5657-4EBD-A3A5-BF570ED37D42}">
       <formula1>"Admin Fee,Booking Fee,Transaction Charges"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15" xr:uid="{4EBB6350-A048-4762-B9E1-4E998912798F}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1964,7 +1961,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,10 +2001,10 @@
         <v>17</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>19</v>
@@ -2016,13 +2013,13 @@
         <v>13</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>15</v>
@@ -2033,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -2045,16 +2042,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="6">
         <v>15</v>
@@ -2063,28 +2060,28 @@
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="10">
         <v>2</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="3">
         <v>2</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2107,9 +2104,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{AB4C7238-3FAF-4785-B5EF-169343907143}">
       <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{EE33A21E-C251-485A-9BCE-7678F49FB829}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2 P2" xr:uid="{E514AFCB-8099-468B-BF23-DD12C365D117}">
       <formula1>"1,2,3,4,5,6,7"</formula1>
     </dataValidation>
@@ -2118,6 +2112,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 N2" xr:uid="{54AFB7B9-3061-4768-AB93-F985C51569E3}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{F40645EA-6214-439D-BC7F-1D0E93C4EDB6}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,15 +2123,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7926-1FA8-4BE5-9EE3-C30D0924F33F}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2169,39 +2166,42 @@
         <v>17</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="U1" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -2213,82 +2213,85 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="6">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="J2" s="3">
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="10">
         <v>1</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>67</v>
+      <c r="R2" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="S2" s="3">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{762BDD3A-CB74-4E82-8EBC-630C67EF65DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{A4F5B04F-A16F-470C-B861-ADBA8F3F6DCD}">
       <formula1>"Admin Fee,Booking Fee,Transaction Charges"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{5A012954-7539-407B-AEA3-7DF75A34A663}">
-      <formula1>"at,qlabs12345,merg123456"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{D52BD403-DF9E-4F17-90B9-4D8B5D4A02B7}">
-      <formula1>"Piyush_QL,ankur_ql"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{A63B1465-5A83-4AC2-9D59-450FDBA3E806}">
-      <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{BF71EB08-423C-4CE5-AC3C-11942B969F94}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 S2" xr:uid="{E2073A12-F0A3-4980-A991-DAD53AA3908E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2 Q2" xr:uid="{4C10A146-2587-4A03-84EB-AB2C02B0A3EE}">
       <formula1>"1,2,3,4,5,6,7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{D9C57DAC-9E66-4C1A-960E-B550B96596B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{E8000C51-8F66-4D56-98B4-8DA26664111C}">
       <formula1>"Int,Dom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O2 K2" xr:uid="{EE8EA111-EFAF-41A7-99C2-CE3A0896EDCA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:O2 U2 K2" xr:uid="{6B47440C-4BDA-4064-8BEE-5ACB4D636FB0}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{3AE23EFD-5752-4CBC-BEF3-F4B5E6FB5935}">
-      <formula1>"Select,Profit,Customer Cost,Customer Cost Excl Tax"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{C08C5AF5-40A9-4665-A8D7-1BAAE711A41F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{B3D58369-576D-440E-8EB8-5F81906050FA}">
       <formula1>"Flight,Bus,Car,Dynamic Air,Hotel,Insurance,Meet and Greet Service,Sightseeing,Transfer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5BCE46BB-F3AB-4858-A371-863FC926B461}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{23617C5A-94E2-4026-AA0B-F309567C0211}">
+      <formula1>"//v12staging/backoffice/,//login.konnect.travel/backoffice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{D5946AE8-9EE9-416B-81A9-FB30A0DFBAEC}">
+      <formula1>"Piyush_QL,ankur_ql,Ankur"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{98F0660E-ED28-4F64-93C9-B21EAFA87670}">
+      <formula1>"at,qlabs12345,merg123456,KN2503"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{D75B77F8-5F5C-46F5-A5ED-35AC7C987D25}">
+      <formula1>"Select,Base Fare,Base Fare+YQ,Commision,Base Fare + YQ + YR,Base Fare + YR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,7 +2303,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,10 +2347,10 @@
         <v>17</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>19</v>
@@ -2356,13 +2359,13 @@
         <v>13</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>15</v>
@@ -2370,10 +2373,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -2385,16 +2388,16 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="3">
         <v>12</v>
@@ -2403,36 +2406,36 @@
         <v>18</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="10">
         <v>1</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="3">
         <v>2</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -2444,54 +2447,54 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="3">
         <v>8</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="10">
         <v>2</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" s="3">
         <v>2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -2503,16 +2506,16 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="3">
         <v>11</v>
@@ -2521,36 +2524,36 @@
         <v>18</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="10">
         <v>2</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" s="3">
         <v>2</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
@@ -2562,54 +2565,54 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="3">
         <v>16</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="10">
         <v>2</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R5" s="3">
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -2621,16 +2624,16 @@
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="3">
         <v>17</v>
@@ -2639,36 +2642,36 @@
         <v>18</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="10">
         <v>2</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6" s="3">
         <v>2</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -2680,16 +2683,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="3">
         <v>18</v>
@@ -2698,32 +2701,32 @@
         <v>18</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" s="10">
         <v>2</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R7" s="3">
         <v>2</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7" xr:uid="{AAD528BA-A14C-43B6-9D9C-3CB4A9450062}">
       <formula1>"Base Fare,Base Fare+YQ,Commision,Base Fare + YQ + YR,Base Fare + YR"</formula1>
     </dataValidation>
@@ -2739,9 +2742,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{14B5BE4D-4B54-481D-BA9F-D0680704A773}">
       <formula1>"//v12staging/backoffice/,//xchangev12/backoffice/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{25D2FCFB-16A8-470A-A5BF-7929B06B61C9}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{97FFF3FC-E319-477E-98D2-093174358908}">
       <formula1>"Flight,Bus,Car,Hotel,Insurance,Meet and Greet Service,Sightseeing,Transfer"</formula1>
     </dataValidation>
@@ -2753,6 +2753,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7 N2:N7" xr:uid="{1C52727C-9EBE-4451-9D70-0DE64E094A9C}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G7" xr:uid="{7214C502-8344-4DCE-97B4-022827E23B6A}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{A5AAD5D6-1F75-4660-B474-2BB155A07D98}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C,Ankur@123456"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2764,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2CEBD3-94A2-47BA-951E-276AF72C2B6E}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,140 +2811,140 @@
         <v>17</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3">
         <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="10">
         <v>1</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S2" s="3">
         <v>2</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J3" s="3">
         <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>18</v>
@@ -2947,116 +2953,116 @@
         <v>18</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="10">
         <v>2</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S3" s="3">
         <v>1</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="10">
         <v>3</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S4" s="3">
         <v>3</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" s="3">
         <v>4</v>
@@ -3065,34 +3071,34 @@
         <v>18</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="10">
         <v>2</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S5" s="3">
         <v>3</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3100,9 +3106,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{F2F58458-789F-4591-9EB6-10857D9A8FE9}">
       <formula1>"Admin Fee,Booking Fee,Transaction Charges"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{F640DF8D-DD9A-4E39-8618-3048C3953661}">
-      <formula1>"Password@123,Ankur@12345"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5" xr:uid="{F2CFD7C3-A6FC-472D-9C45-31246B77A5B8}">
       <formula1>"Int,Dom"</formula1>
     </dataValidation>
@@ -3132,6 +3135,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{B57CC9A8-D951-470E-AB3A-63EC05350615}">
       <formula1>"//v12staging/backoffice/,//login.konnect.travel/backoffice"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{D1097765-6108-44CE-BC5B-A3D8DDA0D166}">
+      <formula1>"Password@@12,Ankur@12345,9@6C6535C"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
